--- a/biology/Botanique/Ornithopus_sativus/Ornithopus_sativus.xlsx
+++ b/biology/Botanique/Ornithopus_sativus/Ornithopus_sativus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ornithopus sativus (l'ornithope cultivé, pied d'oiseau cultivé ou serradelle[1]), est une espèce de plantes à fleurs de la famille des Fabacées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ornithopus sativus (l'ornithope cultivé, pied d'oiseau cultivé ou serradelle), est une espèce de plantes à fleurs de la famille des Fabacées.
 Nom vernaculaire anglais : Common Bird's-foot.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Coronilla seradella E.H.L.Krause
 Ornithopus perpusillus subsp. roseus (Dufour) Rouy
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée annuelle ou pérennante de 30 à 60 cm de haut, fleurs roses longues de 7 à 8 mm s'épanouissant de mai à août. Le fruit (gousse) est glabre, brunâtre à maturité ; il ressemble à un pied d'oiseau (photo) d'où le nom vernaculaire.
 </t>
@@ -576,7 +592,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sud-ouest de l'Europe, Afrique du Nord.
 </t>
@@ -607,7 +625,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Endroits sablonneux.
 </t>
